--- a/src/main/resources/xlsx/cet/obj_list.xlsx
+++ b/src/main/resources/xlsx/cet/obj_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48D20B10-FB8A-4D86-AE8F-5137893080D9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CE8FCE0-A1B3-4E7D-BA48-16F8D7094B55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="sheet" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
   </si>
@@ -40,11 +40,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号码</t>
+    <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工号</t>
+    <t>选课时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -179,6 +186,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,32 +532,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -552,44 +567,50 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+    <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+    <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
-  <sortState sortMethod="stroke" ref="A3:E3">
+  <sortState sortMethod="stroke" ref="A3:F3">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cet/obj_list.xlsx
+++ b/src/main/resources/xlsx/cet/obj_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CE8FCE0-A1B3-4E7D-BA48-16F8D7094B55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="6" r:id="rId1"/>
@@ -28,10 +27,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>所在单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -49,13 +44,17 @@
   </si>
   <si>
     <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时任单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,19 +178,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -287,23 +286,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -339,23 +321,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -550,33 +515,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -584,24 +549,24 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
   </sheetData>
   <sortState sortMethod="stroke" ref="A3:F3">
